--- a/PR2.xlsx
+++ b/PR2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sara\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E27230-FBAF-4386-AFF3-F4A757365258}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="8115" windowHeight="3675" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12192" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sec. O2" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
     <sheet name="PROGRESO" sheetId="9" r:id="rId5"/>
     <sheet name="Hoja1" sheetId="14" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="66">
   <si>
     <t>Operaciones</t>
   </si>
@@ -203,11 +209,26 @@
   <si>
     <t>Talla:</t>
   </si>
+  <si>
+    <t>num procesos</t>
+  </si>
+  <si>
+    <t>procesadores</t>
+  </si>
+  <si>
+    <t>Los datos de 4 x 9  son muy dispares</t>
+  </si>
+  <si>
+    <t>no termina</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -332,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -358,6 +379,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,12 +390,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -402,7 +427,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -480,6 +504,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-60C1-42EF-8241-E28794BAAC5B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -515,7 +544,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -550,7 +578,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -564,7 +591,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -580,7 +606,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -614,7 +640,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -698,6 +723,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8910-4F77-8FE0-ADE1895DC14E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -774,6 +804,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8910-4F77-8FE0-ADE1895DC14E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -850,6 +885,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8910-4F77-8FE0-ADE1895DC14E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -926,6 +966,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8910-4F77-8FE0-ADE1895DC14E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1002,6 +1047,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8910-4F77-8FE0-ADE1895DC14E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1078,6 +1128,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8910-4F77-8FE0-ADE1895DC14E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1113,7 +1168,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1148,7 +1202,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1162,7 +1215,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1178,7 +1230,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1212,7 +1264,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1296,6 +1347,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC43-4492-95FE-D44755426F9F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1348,16 +1404,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.31044876088412593</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.90300557168641615</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.4203027604630454</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.0221876633910258</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1372,6 +1428,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AC43-4492-95FE-D44755426F9F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1424,16 +1485,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.1589506172839506</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.73985726226451498</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.44269061347276434</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.1313057826445663</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1448,6 +1509,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AC43-4492-95FE-D44755426F9F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1506,10 +1572,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>9.9969066099477755E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.27701368751044519</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1524,6 +1590,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AC43-4492-95FE-D44755426F9F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1600,6 +1671,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-AC43-4492-95FE-D44755426F9F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1676,6 +1752,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-AC43-4492-95FE-D44755426F9F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1711,7 +1792,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1746,7 +1826,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1760,7 +1839,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1776,7 +1854,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1805,7 +1883,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1889,6 +1966,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5CC4-44CE-8400-E5CC0BEBD901}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1965,6 +2047,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5CC4-44CE-8400-E5CC0BEBD901}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2041,6 +2128,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5CC4-44CE-8400-E5CC0BEBD901}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2117,6 +2209,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5CC4-44CE-8400-E5CC0BEBD901}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2193,6 +2290,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5CC4-44CE-8400-E5CC0BEBD901}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -2269,6 +2371,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5CC4-44CE-8400-E5CC0BEBD901}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2304,7 +2411,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2339,7 +2445,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2353,7 +2458,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2369,7 +2473,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2403,7 +2507,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2487,6 +2590,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC7F-44EF-A9B4-423CE58D6653}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2539,16 +2647,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.15522438044206296</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.45150278584320808</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.71015138023152269</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.0110938316955129</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2563,6 +2671,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AC7F-44EF-A9B4-423CE58D6653}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2615,16 +2728,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.973765432098765E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.18496431556612875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.11067265336819108</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.28282644566114157</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2639,6 +2752,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AC7F-44EF-A9B4-423CE58D6653}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2697,10 +2815,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.2496133262434719E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3.4626710938805649E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2715,6 +2833,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AC7F-44EF-A9B4-423CE58D6653}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2791,6 +2914,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-AC7F-44EF-A9B4-423CE58D6653}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -2867,6 +2995,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-AC7F-44EF-A9B4-423CE58D6653}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2902,7 +3035,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2937,7 +3069,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2951,7 +3082,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2967,7 +3097,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2996,7 +3126,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3080,6 +3209,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BDB9-4D04-B9E2-216F8A2162EA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3156,6 +3290,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BDB9-4D04-B9E2-216F8A2162EA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3232,6 +3371,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BDB9-4D04-B9E2-216F8A2162EA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3308,6 +3452,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BDB9-4D04-B9E2-216F8A2162EA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -3384,6 +3533,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BDB9-4D04-B9E2-216F8A2162EA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -3460,6 +3614,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-BDB9-4D04-B9E2-216F8A2162EA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3495,7 +3654,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3530,7 +3688,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3544,7 +3701,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3560,7 +3716,7 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3589,7 +3745,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3673,6 +3828,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-61A4-4034-AEBF-9EF389B6FA6D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3749,6 +3909,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-61A4-4034-AEBF-9EF389B6FA6D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3825,6 +3990,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-61A4-4034-AEBF-9EF389B6FA6D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3901,6 +4071,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-61A4-4034-AEBF-9EF389B6FA6D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -3977,6 +4152,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-61A4-4034-AEBF-9EF389B6FA6D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -4053,6 +4233,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-61A4-4034-AEBF-9EF389B6FA6D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4088,7 +4273,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4123,7 +4307,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4137,7 +4320,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4153,7 +4335,7 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -4182,7 +4364,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4266,6 +4447,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A7E3-4A68-B2A8-474B0FE10E02}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4342,6 +4528,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A7E3-4A68-B2A8-474B0FE10E02}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4418,6 +4609,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A7E3-4A68-B2A8-474B0FE10E02}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -4494,6 +4690,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A7E3-4A68-B2A8-474B0FE10E02}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -4570,6 +4771,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A7E3-4A68-B2A8-474B0FE10E02}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -4646,6 +4852,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A7E3-4A68-B2A8-474B0FE10E02}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4681,7 +4892,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4716,7 +4926,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4730,7 +4939,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4746,7 +4954,7 @@
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -4775,7 +4983,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4853,6 +5060,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B99-4453-BD22-46A250C5FE1F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4923,6 +5135,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7B99-4453-BD22-46A250C5FE1F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4993,6 +5210,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7B99-4453-BD22-46A250C5FE1F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -5063,6 +5285,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7B99-4453-BD22-46A250C5FE1F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -5133,6 +5360,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7B99-4453-BD22-46A250C5FE1F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -5203,6 +5435,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7B99-4453-BD22-46A250C5FE1F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5238,7 +5475,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5273,7 +5509,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5287,7 +5522,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5303,7 +5537,7 @@
 </file>
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -5337,7 +5571,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5415,6 +5648,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E5B-4572-B0B5-462E56316EFB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5485,6 +5723,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2E5B-4572-B0B5-462E56316EFB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5555,6 +5798,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2E5B-4572-B0B5-462E56316EFB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -5625,6 +5873,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2E5B-4572-B0B5-462E56316EFB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -5695,6 +5948,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2E5B-4572-B0B5-462E56316EFB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -5765,6 +6023,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2E5B-4572-B0B5-462E56316EFB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5800,7 +6063,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5835,7 +6097,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5849,7 +6110,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5865,7 +6125,7 @@
 </file>
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -5899,7 +6159,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5956,10 +6215,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.15522438044206296</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.973765432098765E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -5971,6 +6230,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8BAF-4036-93A8-434ECAFAA0E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -6020,10 +6284,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.45150278584320808</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.18496431556612875</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -6035,6 +6299,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8BAF-4036-93A8-434ECAFAA0E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -6084,13 +6353,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.71015138023152269</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.11067265336819108</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.2496133262434719E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -6099,6 +6368,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8BAF-4036-93A8-434ECAFAA0E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -6148,13 +6422,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.0110938316955129</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.28282644566114157</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3.4626710938805649E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -6163,6 +6437,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8BAF-4036-93A8-434ECAFAA0E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -6227,6 +6506,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8BAF-4036-93A8-434ECAFAA0E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -6291,6 +6575,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8BAF-4036-93A8-434ECAFAA0E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -6355,6 +6644,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8BAF-4036-93A8-434ECAFAA0E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -6419,6 +6713,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-8BAF-4036-93A8-434ECAFAA0E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6454,7 +6753,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6489,7 +6787,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6503,7 +6800,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6519,7 +6815,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -6548,7 +6844,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6626,6 +6921,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D6C5-4216-BC48-3F7430784DE3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6666,7 +6966,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6754,7 +7053,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6768,7 +7066,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6784,7 +7081,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -6896,6 +7193,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A2AF-49BB-89CB-7AA5102E8B45}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6993,7 +7295,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -7022,7 +7324,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7106,6 +7407,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BC18-4883-B963-1980279F357A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7141,7 +7447,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -7176,7 +7481,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -7190,7 +7494,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7206,7 +7509,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -7235,7 +7538,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7319,6 +7621,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D86-41D0-B332-D12831879F07}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7354,7 +7661,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -7389,7 +7695,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -7403,7 +7708,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7419,7 +7723,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -7448,7 +7752,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7526,6 +7829,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4A1C-4E6C-B853-1E54DB7B17A8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -7596,6 +7904,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4A1C-4E6C-B853-1E54DB7B17A8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -7666,6 +7979,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4A1C-4E6C-B853-1E54DB7B17A8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -7736,6 +8054,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4A1C-4E6C-B853-1E54DB7B17A8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -7806,6 +8129,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4A1C-4E6C-B853-1E54DB7B17A8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -7876,6 +8204,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4A1C-4E6C-B853-1E54DB7B17A8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7911,7 +8244,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -7946,7 +8278,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -7960,7 +8291,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7976,7 +8306,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -8005,7 +8335,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8083,6 +8412,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B9FF-4BF3-8C60-E8CAD2C025DC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -8132,16 +8466,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>597.20000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2548.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6962.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>14918.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -8153,6 +8487,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B9FF-4BF3-8C60-E8CAD2C025DC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -8202,16 +8541,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1166.4000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3110.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>22338.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>26666</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -8223,6 +8562,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B9FF-4BF3-8C60-E8CAD2C025DC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -8278,10 +8622,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>98920.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>108902.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -8293,6 +8637,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B9FF-4BF3-8C60-E8CAD2C025DC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -8363,6 +8712,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B9FF-4BF3-8C60-E8CAD2C025DC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -8433,6 +8787,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B9FF-4BF3-8C60-E8CAD2C025DC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8468,7 +8827,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -8503,7 +8861,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -8517,7 +8874,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8533,7 +8889,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -8562,7 +8918,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8640,6 +8995,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DBAA-40E1-85F4-9401F0DC4D8D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -8710,6 +9070,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DBAA-40E1-85F4-9401F0DC4D8D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -8780,6 +9145,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DBAA-40E1-85F4-9401F0DC4D8D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -8850,6 +9220,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DBAA-40E1-85F4-9401F0DC4D8D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -8920,6 +9295,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DBAA-40E1-85F4-9401F0DC4D8D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -8990,6 +9370,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-DBAA-40E1-85F4-9401F0DC4D8D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -9025,7 +9410,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -9065,7 +9449,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -9079,7 +9462,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9095,7 +9477,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -9129,7 +9511,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9207,6 +9588,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F3EF-4F78-8930-B0D1053EFD40}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -9277,6 +9663,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F3EF-4F78-8930-B0D1053EFD40}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -9347,6 +9738,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F3EF-4F78-8930-B0D1053EFD40}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -9417,6 +9813,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F3EF-4F78-8930-B0D1053EFD40}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -9487,6 +9888,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F3EF-4F78-8930-B0D1053EFD40}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -9557,6 +9963,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F3EF-4F78-8930-B0D1053EFD40}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -9592,7 +10003,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -9627,7 +10037,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -9641,7 +10050,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9673,7 +10081,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvPr id="2" name="1 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9705,7 +10119,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="2 Gráfico"/>
+        <xdr:cNvPr id="3" name="2 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9737,7 +10157,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="3 Gráfico"/>
+        <xdr:cNvPr id="4" name="3 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9769,7 +10195,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="4 Gráfico"/>
+        <xdr:cNvPr id="5" name="4 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9801,7 +10233,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="5 Gráfico"/>
+        <xdr:cNvPr id="6" name="5 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9838,7 +10276,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvPr id="2" name="1 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9870,7 +10314,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="2 Gráfico"/>
+        <xdr:cNvPr id="3" name="2 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9902,7 +10352,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="3 Gráfico"/>
+        <xdr:cNvPr id="4" name="3 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9934,7 +10390,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="4 Gráfico"/>
+        <xdr:cNvPr id="5" name="4 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9966,7 +10428,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="5 Gráfico"/>
+        <xdr:cNvPr id="6" name="5 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9998,7 +10466,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="6 Gráfico"/>
+        <xdr:cNvPr id="7" name="6 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -10030,7 +10504,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="7 Gráfico"/>
+        <xdr:cNvPr id="8" name="7 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -10062,7 +10542,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="8 Gráfico"/>
+        <xdr:cNvPr id="9" name="8 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -10094,7 +10580,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="9 Gráfico"/>
+        <xdr:cNvPr id="10" name="9 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -10126,7 +10618,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="10 Gráfico"/>
+        <xdr:cNvPr id="11" name="10 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -10158,7 +10656,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="11 Gráfico"/>
+        <xdr:cNvPr id="12" name="11 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -10190,7 +10694,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="12 Gráfico"/>
+        <xdr:cNvPr id="13" name="12 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -10222,7 +10732,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="14 Gráfico"/>
+        <xdr:cNvPr id="15" name="14 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -10254,7 +10770,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="18" name="17 Gráfico"/>
+        <xdr:cNvPr id="18" name="17 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -10317,7 +10839,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10350,9 +10872,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10385,6 +10924,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -10560,7 +11116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:Q17"/>
   <sheetViews>
@@ -10568,20 +11124,20 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="10" max="11" width="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
     <col min="13" max="16" width="10" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -10631,7 +11187,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>186</v>
       </c>
@@ -10681,7 +11237,7 @@
         <v>111230710</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -10731,7 +11287,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>185</v>
       </c>
@@ -10781,7 +11337,7 @@
         <v>111610690</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -10831,7 +11387,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>186</v>
       </c>
@@ -10889,7 +11445,7 @@
         <v>108709251.33333333</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I13" s="2" t="s">
         <v>5</v>
       </c>
@@ -10926,7 +11482,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I14" s="2" t="s">
         <v>3</v>
       </c>
@@ -10963,7 +11519,7 @@
         <v>108709251.33333333</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I15" s="2" t="s">
         <v>0</v>
       </c>
@@ -11000,7 +11556,7 @@
         <v>171000000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I16" s="2" t="s">
         <v>2</v>
       </c>
@@ -11037,7 +11593,7 @@
         <v>108.70925133333333</v>
       </c>
     </row>
-    <row r="17" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I17" s="2" t="s">
         <v>1</v>
       </c>
@@ -11080,26 +11636,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -11137,7 +11693,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
@@ -11174,7 +11730,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -11211,7 +11767,7 @@
         <v>149823360000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -11248,7 +11804,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C5" s="4"/>
       <c r="D5" s="4">
         <v>252.99600532623168</v>
@@ -11275,7 +11831,7 @@
         <v>556.27993883042086</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
@@ -11297,7 +11853,7 @@
       </c>
       <c r="H7" s="1">
         <f>'MPI O2'!P17</f>
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I7" s="1">
         <v>51</v>
@@ -11310,7 +11866,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="str">
         <f>C2</f>
         <v>Tiempo</v>
@@ -11348,7 +11904,7 @@
         <v>109843345</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>0</v>
       </c>
@@ -11385,7 +11941,7 @@
         <v>149823360000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
@@ -11422,7 +11978,7 @@
         <v>1363.9730290442267</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -11433,7 +11989,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="31" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="14:22" x14ac:dyDescent="0.3">
       <c r="N31" t="s">
         <v>30</v>
       </c>
@@ -11470,7 +12026,7 @@
         <v>88800</v>
       </c>
     </row>
-    <row r="32" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="14:22" x14ac:dyDescent="0.3">
       <c r="N32" t="s">
         <v>0</v>
       </c>
@@ -11507,7 +12063,7 @@
         <v>149823360000</v>
       </c>
     </row>
-    <row r="33" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="14:22" x14ac:dyDescent="0.3">
       <c r="N33" s="1" t="s">
         <v>49</v>
       </c>
@@ -11544,7 +12100,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="14:22" x14ac:dyDescent="0.3">
       <c r="N34" s="1" t="s">
         <v>50</v>
       </c>
@@ -11581,7 +12137,7 @@
         <v>1363.9730290442267</v>
       </c>
     </row>
-    <row r="36" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="14:22" x14ac:dyDescent="0.3">
       <c r="N36" s="1" t="s">
         <v>31</v>
       </c>
@@ -11618,7 +12174,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="37" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="14:22" x14ac:dyDescent="0.3">
       <c r="N37" s="1" t="str">
         <f>C8</f>
         <v>Tiempo</v>
@@ -11664,17 +12220,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -11688,7 +12244,7 @@
         <v>14</v>
       </c>
       <c r="F1" s="1">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1">
         <v>51</v>
@@ -11699,6 +12255,9 @@
       <c r="I1" s="1">
         <v>888</v>
       </c>
+      <c r="J1" t="s">
+        <v>61</v>
+      </c>
       <c r="L1" s="1">
         <v>1</v>
       </c>
@@ -11712,7 +12271,7 @@
         <v>14</v>
       </c>
       <c r="P1" s="1">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="1">
         <v>51</v>
@@ -11721,10 +12280,10 @@
         <v>124</v>
       </c>
       <c r="S1" s="1">
-        <v>900</v>
+        <v>888</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -11794,79 +12353,141 @@
         <v>111230710</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="B3" s="13">
+        <v>576</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2600</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6936</v>
+      </c>
+      <c r="E3" s="1">
+        <v>15049</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="K3" s="1">
         <v>2</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="L3" s="1">
+        <v>504</v>
+      </c>
+      <c r="M3" s="1">
+        <v>2596</v>
+      </c>
+      <c r="N3" s="1">
+        <v>6791</v>
+      </c>
+      <c r="O3" s="1">
+        <v>14745</v>
+      </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="B4" s="1">
+        <v>901</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3003</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10859</v>
+      </c>
+      <c r="E4" s="1">
+        <v>29288</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="K4" s="1">
         <v>4</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="L4" s="1">
+        <v>1167</v>
+      </c>
+      <c r="M4" s="1">
+        <v>3236</v>
+      </c>
+      <c r="N4" s="1">
+        <v>8251</v>
+      </c>
+      <c r="O4" s="1">
+        <v>25747</v>
+      </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>8</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="1">
+        <v>113669</v>
+      </c>
+      <c r="E5" s="1">
+        <v>114878</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="K5" s="1">
         <v>8</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="N5" s="1">
+        <v>78005</v>
+      </c>
+      <c r="O5" s="1">
+        <v>115292</v>
+      </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>12</v>
       </c>
@@ -11890,7 +12511,7 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>24</v>
       </c>
@@ -11914,7 +12535,12 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>1</v>
       </c>
@@ -11928,7 +12554,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="1">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G9" s="1">
         <v>51</v>
@@ -11937,7 +12563,7 @@
         <v>124</v>
       </c>
       <c r="I9" s="1">
-        <v>900</v>
+        <v>888</v>
       </c>
       <c r="L9" s="1">
         <v>1</v>
@@ -11952,7 +12578,7 @@
         <v>14</v>
       </c>
       <c r="P9" s="1">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="1">
         <v>51</v>
@@ -11961,10 +12587,10 @@
         <v>124</v>
       </c>
       <c r="S9" s="1">
-        <v>900</v>
+        <v>888</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -12034,14 +12660,22 @@
         <v>111610690</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="B11" s="1">
+        <v>657</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2597</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7159</v>
+      </c>
+      <c r="E11" s="1">
+        <v>15391</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -12049,23 +12683,39 @@
       <c r="K11" s="1">
         <v>2</v>
       </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="L11" s="1">
+        <v>536</v>
+      </c>
+      <c r="M11" s="1">
+        <v>2467</v>
+      </c>
+      <c r="N11" s="1">
+        <v>7016</v>
+      </c>
+      <c r="O11" s="1">
+        <v>14747</v>
+      </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>4</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="B12" s="1">
+        <v>1080</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3027</v>
+      </c>
+      <c r="D12" s="1">
+        <v>49850</v>
+      </c>
+      <c r="E12" s="1">
+        <v>26088</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -12073,23 +12723,35 @@
       <c r="K12" s="1">
         <v>4</v>
       </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="L12" s="1">
+        <v>1110</v>
+      </c>
+      <c r="M12" s="1">
+        <v>3260</v>
+      </c>
+      <c r="N12" s="1">
+        <v>34649</v>
+      </c>
+      <c r="O12" s="1">
+        <v>36108</v>
+      </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>8</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="D13" s="1">
+        <v>103700</v>
+      </c>
+      <c r="E13" s="1">
+        <v>65938</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -12099,14 +12761,18 @@
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="N13" s="1">
+        <v>138716</v>
+      </c>
+      <c r="O13" s="1">
+        <v>110367</v>
+      </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -12130,7 +12796,7 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>24</v>
       </c>
@@ -12154,7 +12820,7 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>1</v>
       </c>
@@ -12168,7 +12834,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="1">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G17" s="1">
         <v>51</v>
@@ -12177,7 +12843,7 @@
         <v>124</v>
       </c>
       <c r="I17" s="1">
-        <v>900</v>
+        <v>888</v>
       </c>
       <c r="L17" s="1">
         <v>1</v>
@@ -12192,7 +12858,7 @@
         <v>14</v>
       </c>
       <c r="P17" s="1">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q17" s="1">
         <f t="shared" ref="L17:Q23" si="0">SUM(G1,Q1,G9,Q9,G17)/5</f>
@@ -12202,10 +12868,10 @@
         <v>124</v>
       </c>
       <c r="S17" s="1">
-        <v>900</v>
+        <v>888</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -12276,14 +12942,22 @@
         <v>109843345</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="B19" s="1">
+        <v>713</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2483</v>
+      </c>
+      <c r="D19" s="1">
+        <v>6911</v>
+      </c>
+      <c r="E19" s="1">
+        <v>14659</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -12293,19 +12967,19 @@
       </c>
       <c r="L19" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>597.20000000000005</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2548.6</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6962.6</v>
       </c>
       <c r="O19" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14918.2</v>
       </c>
       <c r="P19" s="1">
         <f t="shared" si="0"/>
@@ -12324,14 +12998,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="B20" s="1">
+        <v>1574</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3027</v>
+      </c>
+      <c r="D20" s="1">
+        <v>8083</v>
+      </c>
+      <c r="E20" s="1">
+        <v>16099</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -12341,19 +13023,19 @@
       </c>
       <c r="L20" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1166.4000000000001</v>
       </c>
       <c r="M20" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3110.6</v>
       </c>
       <c r="N20" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22338.400000000001</v>
       </c>
       <c r="O20" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26666</v>
       </c>
       <c r="P20" s="1">
         <f t="shared" si="0"/>
@@ -12372,14 +13054,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>8</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="D21" s="1">
+        <v>60513</v>
+      </c>
+      <c r="E21" s="1">
+        <v>138036</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -12397,11 +13083,11 @@
       </c>
       <c r="N21" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98920.6</v>
       </c>
       <c r="O21" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>108902.2</v>
       </c>
       <c r="P21" s="1">
         <f t="shared" si="0"/>
@@ -12420,7 +13106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>12</v>
       </c>
@@ -12468,7 +13154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>24</v>
       </c>
@@ -12516,32 +13202,37 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AX83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="W10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M104" sqref="M104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
-    <col min="13" max="13" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" customWidth="1"/>
-    <col min="31" max="31" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.42578125" customWidth="1"/>
-    <col min="42" max="42" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="13" max="13" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.44140625" customWidth="1"/>
+    <col min="31" max="31" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.44140625" customWidth="1"/>
+    <col min="42" max="42" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -12698,7 +13389,7 @@
         <v>88800</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="e">
         <f>#REF!&amp;" procesador"</f>
         <v>#REF!</v>
@@ -12873,7 +13564,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="e">
         <f>#REF!&amp;" procesadores"</f>
         <v>#REF!</v>
@@ -13048,7 +13739,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="e">
         <f>#REF!&amp;" procesadores"</f>
         <v>#REF!</v>
@@ -13223,7 +13914,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="e">
         <f>#REF!&amp;" procesadores"</f>
         <v>#REF!</v>
@@ -13398,7 +14089,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="e">
         <f>#REF!&amp;" procesadores"</f>
         <v>#REF!</v>
@@ -13573,7 +14264,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="e">
         <f>#REF!&amp;" procesadores"</f>
         <v>#REF!</v>
@@ -13748,7 +14439,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
@@ -13770,7 +14461,7 @@
       </c>
       <c r="H9" s="1">
         <f>'MPI O2'!P17</f>
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I9" s="1">
         <v>51</v>
@@ -13831,7 +14522,7 @@
       </c>
       <c r="Z9">
         <f t="shared" si="9"/>
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AA9">
         <f t="shared" si="9"/>
@@ -13916,7 +14607,7 @@
         <v>88800</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="e">
         <f>C2</f>
         <v>#REF!</v>
@@ -14091,26 +14782,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="e">
         <f t="shared" ref="C11:C15" si="16">C3</f>
         <v>#REF!</v>
       </c>
       <c r="D11" s="1">
         <f>'MPI O2'!L19</f>
-        <v>0</v>
+        <v>597.20000000000005</v>
       </c>
       <c r="E11" s="1">
         <f>'MPI O2'!M19</f>
-        <v>0</v>
+        <v>2548.6</v>
       </c>
       <c r="F11" s="1">
         <f>'MPI O2'!N19</f>
-        <v>0</v>
+        <v>6962.6</v>
       </c>
       <c r="G11" s="1">
         <f>'MPI O2'!O19</f>
-        <v>0</v>
+        <v>14918.2</v>
       </c>
       <c r="H11" s="1">
         <f>'MPI O2'!P19</f>
@@ -14160,21 +14851,21 @@
         <f t="shared" si="12"/>
         <v>#REF!</v>
       </c>
-      <c r="V11" t="e">
+      <c r="V11">
         <f t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="W11" t="e">
+        <v>2.7761197990529878</v>
+      </c>
+      <c r="W11">
         <f t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="X11" t="e">
+        <v>3.4063016787707747</v>
+      </c>
+      <c r="X11">
         <f t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Y11" t="e">
+        <v>3.8427714457597117</v>
+      </c>
+      <c r="Y11">
         <f t="shared" si="13"/>
-        <v>#NUM!</v>
+        <v>4.173716425199216</v>
       </c>
       <c r="Z11" t="e">
         <f t="shared" si="13"/>
@@ -14195,21 +14886,21 @@
       <c r="AE11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AF11" s="1" t="e">
+      <c r="AF11" s="1">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG11" s="1" t="e">
+        <v>0.31044876088412593</v>
+      </c>
+      <c r="AG11" s="1">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH11" s="1" t="e">
+        <v>0.90300557168641615</v>
+      </c>
+      <c r="AH11" s="1">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI11" s="1" t="e">
+        <v>1.4203027604630454</v>
+      </c>
+      <c r="AI11" s="1">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>2.0221876633910258</v>
       </c>
       <c r="AJ11" s="1" t="e">
         <f t="shared" si="14"/>
@@ -14233,21 +14924,21 @@
       <c r="AP11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AQ11" s="1" t="e">
+      <c r="AQ11" s="1">
         <f t="shared" ref="AQ11:AQ15" si="18">AF11/$AO11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR11" s="1" t="e">
+        <v>0.15522438044206296</v>
+      </c>
+      <c r="AR11" s="1">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AS11" s="1" t="e">
+        <v>0.45150278584320808</v>
+      </c>
+      <c r="AS11" s="1">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT11" s="1" t="e">
+        <v>0.71015138023152269</v>
+      </c>
+      <c r="AT11" s="1">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>1.0110938316955129</v>
       </c>
       <c r="AU11" s="1" t="e">
         <f t="shared" si="15"/>
@@ -14266,26 +14957,26 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="e">
         <f t="shared" si="16"/>
         <v>#REF!</v>
       </c>
       <c r="D12" s="1">
         <f>'MPI O2'!L20</f>
-        <v>0</v>
+        <v>1166.4000000000001</v>
       </c>
       <c r="E12" s="1">
         <f>'MPI O2'!M20</f>
-        <v>0</v>
+        <v>3110.6</v>
       </c>
       <c r="F12" s="1">
         <f>'MPI O2'!N20</f>
-        <v>0</v>
+        <v>22338.400000000001</v>
       </c>
       <c r="G12" s="1">
         <f>'MPI O2'!O20</f>
-        <v>0</v>
+        <v>26666</v>
       </c>
       <c r="H12" s="1">
         <f>'MPI O2'!P20</f>
@@ -14335,21 +15026,21 @@
         <f t="shared" si="12"/>
         <v>#REF!</v>
       </c>
-      <c r="V12" t="e">
+      <c r="V12">
         <f t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="W12" t="e">
+        <v>3.0668475109738993</v>
+      </c>
+      <c r="W12">
         <f t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="X12" t="e">
+        <v>3.492844167662323</v>
+      </c>
+      <c r="X12">
         <f t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Y12" t="e">
+        <v>4.3490520633160399</v>
+      </c>
+      <c r="Y12">
         <f t="shared" si="13"/>
-        <v>#NUM!</v>
+        <v>4.4259578747745145</v>
       </c>
       <c r="Z12" t="e">
         <f t="shared" si="13"/>
@@ -14370,21 +15061,21 @@
       <c r="AE12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AF12" s="1" t="e">
+      <c r="AF12" s="1">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG12" s="1" t="e">
+        <v>0.1589506172839506</v>
+      </c>
+      <c r="AG12" s="1">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH12" s="1" t="e">
+        <v>0.73985726226451498</v>
+      </c>
+      <c r="AH12" s="1">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI12" s="1" t="e">
+        <v>0.44269061347276434</v>
+      </c>
+      <c r="AI12" s="1">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>1.1313057826445663</v>
       </c>
       <c r="AJ12" s="1" t="e">
         <f t="shared" si="14"/>
@@ -14408,21 +15099,21 @@
       <c r="AP12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AQ12" s="1" t="e">
+      <c r="AQ12" s="1">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR12" s="1" t="e">
+        <v>3.973765432098765E-2</v>
+      </c>
+      <c r="AR12" s="1">
         <f>AG12/$AO12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AS12" s="1" t="e">
+        <v>0.18496431556612875</v>
+      </c>
+      <c r="AS12" s="1">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT12" s="1" t="e">
+        <v>0.11067265336819108</v>
+      </c>
+      <c r="AT12" s="1">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>0.28282644566114157</v>
       </c>
       <c r="AU12" s="1" t="e">
         <f t="shared" si="15"/>
@@ -14441,7 +15132,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="e">
         <f t="shared" si="16"/>
         <v>#REF!</v>
@@ -14456,11 +15147,11 @@
       </c>
       <c r="F13" s="1">
         <f>'MPI O2'!N21</f>
-        <v>0</v>
+        <v>98920.6</v>
       </c>
       <c r="G13" s="1">
         <f>'MPI O2'!O21</f>
-        <v>0</v>
+        <v>108902.2</v>
       </c>
       <c r="H13" s="1">
         <f>'MPI O2'!P21</f>
@@ -14518,13 +15209,13 @@
         <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
-      <c r="X13" t="e">
+      <c r="X13">
         <f t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Y13" t="e">
+        <v>4.9952867418976998</v>
+      </c>
+      <c r="Y13">
         <f t="shared" si="13"/>
-        <v>#NUM!</v>
+        <v>5.0370366532930504</v>
       </c>
       <c r="Z13" t="e">
         <f t="shared" si="13"/>
@@ -14553,13 +15244,13 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH13" s="1" t="e">
+      <c r="AH13" s="1">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI13" s="1" t="e">
+        <v>9.9969066099477755E-2</v>
+      </c>
+      <c r="AI13" s="1">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>0.27701368751044519</v>
       </c>
       <c r="AJ13" s="1" t="e">
         <f t="shared" si="14"/>
@@ -14591,13 +15282,13 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS13" s="1" t="e">
+      <c r="AS13" s="1">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT13" s="1" t="e">
+        <v>1.2496133262434719E-2</v>
+      </c>
+      <c r="AT13" s="1">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>3.4626710938805649E-2</v>
       </c>
       <c r="AU13" s="1" t="e">
         <f t="shared" si="15"/>
@@ -14616,7 +15307,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="e">
         <f t="shared" si="16"/>
         <v>#REF!</v>
@@ -14791,7 +15482,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="e">
         <f t="shared" si="16"/>
         <v>#REF!</v>
@@ -14966,7 +15657,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>0</v>
       </c>
@@ -15003,7 +15694,7 @@
         <v>149823360000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>60</v>
       </c>
@@ -15075,7 +15766,7 @@
         <v>88800</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="e">
         <f>"MOPS "&amp;C2</f>
         <v>#REF!</v>
@@ -15149,7 +15840,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="e">
         <f t="shared" ref="C51:C55" si="25">"MOPS "&amp;C3</f>
         <v>#REF!</v>
@@ -15223,7 +15914,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="e">
         <f t="shared" si="25"/>
         <v>#REF!</v>
@@ -15297,7 +15988,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="e">
         <f t="shared" si="25"/>
         <v>#REF!</v>
@@ -15371,7 +16062,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="e">
         <f t="shared" si="25"/>
         <v>#REF!</v>
@@ -15445,7 +16136,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C55" s="12" t="e">
         <f t="shared" si="25"/>
         <v>#REF!</v>
@@ -15519,7 +16210,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="str">
         <f>C49</f>
         <v>Talla:</v>
@@ -15557,7 +16248,7 @@
         <v>88800</v>
       </c>
     </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="e">
         <f>"MOPS "&amp;C10</f>
         <v>#REF!</v>
@@ -15629,7 +16320,7 @@
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="e">
         <f t="shared" ref="C58:C62" si="29">"MOPS "&amp;C11</f>
         <v>#REF!</v>
@@ -15702,7 +16393,7 @@
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="e">
         <f t="shared" si="29"/>
         <v>#REF!</v>
@@ -15775,7 +16466,7 @@
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="e">
         <f t="shared" si="29"/>
         <v>#REF!</v>
@@ -15848,7 +16539,7 @@
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="e">
         <f t="shared" si="29"/>
         <v>#REF!</v>
@@ -15921,7 +16612,7 @@
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="e">
         <f t="shared" si="29"/>
         <v>#REF!</v>
@@ -15994,7 +16685,7 @@
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.3">
       <c r="M63" s="1" t="e">
         <f t="shared" si="31"/>
         <v>#REF!</v>
@@ -16031,7 +16722,7 @@
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
     </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:27" x14ac:dyDescent="0.3">
       <c r="D64">
         <v>2</v>
       </c>
@@ -16051,7 +16742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:27" x14ac:dyDescent="0.3">
       <c r="D65">
         <f>N65</f>
         <v>1</v>
@@ -16107,7 +16798,7 @@
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
     </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>43</v>
       </c>
@@ -16174,7 +16865,7 @@
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>44</v>
       </c>
@@ -16241,7 +16932,7 @@
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
     </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>45</v>
       </c>
@@ -16308,7 +16999,7 @@
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
     </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>46</v>
       </c>
@@ -16375,7 +17066,7 @@
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
     </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>47</v>
       </c>
@@ -16442,7 +17133,7 @@
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>48</v>
       </c>
@@ -16509,7 +17200,7 @@
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
     </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>41</v>
       </c>
@@ -16541,7 +17232,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>42</v>
       </c>
@@ -16573,7 +17264,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:27" x14ac:dyDescent="0.3">
       <c r="D74">
         <v>10</v>
       </c>
@@ -16593,7 +17284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:27" x14ac:dyDescent="0.3">
       <c r="D75">
         <f>N65</f>
         <v>1</v>
@@ -16616,7 +17307,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>43</v>
       </c>
@@ -16627,13 +17318,13 @@
         <f ca="1">INDIRECT($B76&amp;D$74)</f>
         <v>1</v>
       </c>
-      <c r="E76" t="e">
+      <c r="E76">
         <f t="shared" ref="E76:I76" ca="1" si="41">INDIRECT($B76&amp;E$74)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F76" t="e">
+        <v>0.15522438044206296</v>
+      </c>
+      <c r="F76">
         <f t="shared" ca="1" si="41"/>
-        <v>#DIV/0!</v>
+        <v>3.973765432098765E-2</v>
       </c>
       <c r="G76" t="e">
         <f t="shared" ca="1" si="41"/>
@@ -16648,7 +17339,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>44</v>
       </c>
@@ -16659,13 +17350,13 @@
         <f t="shared" ref="D77:I83" ca="1" si="42">INDIRECT($B77&amp;D$74)</f>
         <v>1</v>
       </c>
-      <c r="E77" t="e">
+      <c r="E77">
         <f t="shared" ca="1" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F77" t="e">
+        <v>0.45150278584320808</v>
+      </c>
+      <c r="F77">
         <f t="shared" ca="1" si="42"/>
-        <v>#DIV/0!</v>
+        <v>0.18496431556612875</v>
       </c>
       <c r="G77" t="e">
         <f t="shared" ca="1" si="42"/>
@@ -16680,7 +17371,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>45</v>
       </c>
@@ -16691,17 +17382,17 @@
         <f t="shared" ca="1" si="42"/>
         <v>1</v>
       </c>
-      <c r="E78" t="e">
+      <c r="E78">
         <f t="shared" ca="1" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F78" t="e">
+        <v>0.71015138023152269</v>
+      </c>
+      <c r="F78">
         <f t="shared" ca="1" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G78" t="e">
+        <v>0.11067265336819108</v>
+      </c>
+      <c r="G78">
         <f t="shared" ca="1" si="42"/>
-        <v>#DIV/0!</v>
+        <v>1.2496133262434719E-2</v>
       </c>
       <c r="H78" t="e">
         <f t="shared" ca="1" si="42"/>
@@ -16712,7 +17403,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>46</v>
       </c>
@@ -16723,17 +17414,17 @@
         <f t="shared" ca="1" si="42"/>
         <v>1</v>
       </c>
-      <c r="E79" t="e">
+      <c r="E79">
         <f t="shared" ca="1" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F79" t="e">
+        <v>1.0110938316955129</v>
+      </c>
+      <c r="F79">
         <f t="shared" ca="1" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G79" t="e">
+        <v>0.28282644566114157</v>
+      </c>
+      <c r="G79">
         <f t="shared" ca="1" si="42"/>
-        <v>#DIV/0!</v>
+        <v>3.4626710938805649E-2</v>
       </c>
       <c r="H79" t="e">
         <f t="shared" ca="1" si="42"/>
@@ -16744,7 +17435,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>47</v>
       </c>
@@ -16776,7 +17467,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>48</v>
       </c>
@@ -16808,7 +17499,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>41</v>
       </c>
@@ -16840,7 +17531,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>42</v>
       </c>
@@ -16879,7 +17570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Hoja5"/>
   <dimension ref="B2:E29"/>
   <sheetViews>
@@ -16887,12 +17578,12 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -16903,7 +17594,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -16916,7 +17607,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -16925,61 +17616,61 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5">
         <f>SUM(C6:C10)</f>
-        <v>40</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6">
         <f>8*6-COUNTBLANK('MPI O2'!B2:I7)</f>
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7">
         <f>8*6-COUNTBLANK('MPI O2'!B10:I15)</f>
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8">
         <f>8*6-COUNTBLANK('MPI O2'!B18:I23)</f>
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9">
         <f>8*6-COUNTBLANK('MPI O2'!L2:S7)</f>
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10">
         <f>8*6-COUNTBLANK('MPI O2'!L10:S15)</f>
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -16988,7 +17679,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -16997,7 +17688,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -17006,7 +17697,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -17015,7 +17706,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -17024,7 +17715,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -17033,7 +17724,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>4</v>
       </c>
@@ -17042,7 +17733,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>9</v>
       </c>
@@ -17051,7 +17742,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>11</v>
       </c>
@@ -17060,7 +17751,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>12</v>
       </c>
@@ -17069,7 +17760,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>13</v>
       </c>
@@ -17078,7 +17769,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>14</v>
       </c>
@@ -17087,7 +17778,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>15</v>
       </c>
@@ -17096,7 +17787,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -17105,7 +17796,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>11</v>
       </c>
@@ -17114,7 +17805,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>12</v>
       </c>
@@ -17123,7 +17814,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>13</v>
       </c>
@@ -17132,7 +17823,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>14</v>
       </c>
@@ -17141,7 +17832,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>15</v>
       </c>
@@ -17159,25 +17850,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="s">
         <v>51</v>
       </c>
@@ -17197,7 +17888,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9">
         <v>1</v>
       </c>
@@ -17221,7 +17912,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="9">
         <v>4</v>
       </c>
@@ -17243,7 +17934,7 @@
       </c>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9">
         <v>9</v>
       </c>
@@ -17265,7 +17956,7 @@
       </c>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="9">
         <v>14</v>
       </c>
@@ -17287,7 +17978,7 @@
       </c>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="9">
         <v>23</v>
       </c>
@@ -17309,7 +18000,7 @@
       </c>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="9">
         <v>51</v>
       </c>
@@ -17333,7 +18024,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="9">
         <v>124</v>
       </c>
@@ -17355,7 +18046,7 @@
       </c>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="9">
         <v>888</v>
       </c>
@@ -17379,7 +18070,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>1</v>
       </c>
